--- a/Data/EC/NIT-9008109004.xlsx
+++ b/Data/EC/NIT-9008109004.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12063DE1-4626-46DE-A252-699F3ED3F8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FF8DE7-0CF8-40C7-8C18-219B40673FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{62BBF6ED-FEB5-4BDA-A5CA-3F0788D0FBEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4EC11BFB-62CC-4CA5-A170-B6C2080702AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,163 +65,142 @@
     <t>CC</t>
   </si>
   <si>
+    <t>88689446</t>
+  </si>
+  <si>
+    <t>ALFONSO RAFAEL GONZALEZ</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>45510692</t>
+  </si>
+  <si>
+    <t>PATRICIA GARCIA BANDERA</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1143326442</t>
+  </si>
+  <si>
+    <t>SANDY JAVIER DURANGO PEREGRINO</t>
+  </si>
+  <si>
+    <t>1042417940</t>
+  </si>
+  <si>
+    <t>DAYANA JUDITH CUESTAS ARROYO</t>
+  </si>
+  <si>
+    <t>1143375294</t>
+  </si>
+  <si>
+    <t>YIRLEIDIS DEL CARMEN CORTES BARRAGAN</t>
+  </si>
+  <si>
+    <t>8509500</t>
+  </si>
+  <si>
+    <t>ESNEIDER RAFAEL PUA RIOS</t>
+  </si>
+  <si>
+    <t>1049539521</t>
+  </si>
+  <si>
+    <t>YURANIS MATOREL DE AVILA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>1047501696</t>
+  </si>
+  <si>
+    <t>ANDREA CAROLINA JUNCO RAMIREZ</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>1050968656</t>
+  </si>
+  <si>
+    <t>CRISTOBAL DAVID CASTILLA RUIZ</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>1050946952</t>
   </si>
   <si>
     <t>LUIS RUIZ PADILLA</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1047472358</t>
+  </si>
+  <si>
+    <t>OVER LICONA BLANCO</t>
+  </si>
+  <si>
+    <t>73007645</t>
+  </si>
+  <si>
+    <t>CARLOS JESUS GARCIA PEREZ</t>
+  </si>
+  <si>
+    <t>1002388970</t>
+  </si>
+  <si>
+    <t>LAINY PAOLA PUELLO MEZA</t>
+  </si>
+  <si>
+    <t>1002204239</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL ECHENIQUE DE ARCO</t>
+  </si>
+  <si>
+    <t>1001971309</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL POLO SIERRA</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>45510692</t>
-  </si>
-  <si>
-    <t>PATRICIA GARCIA BANDERA</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1143326442</t>
-  </si>
-  <si>
-    <t>SANDY JAVIER DURANGO PEREGRINO</t>
-  </si>
-  <si>
-    <t>1047402562</t>
-  </si>
-  <si>
-    <t>JHON EDINSON GARCIA PEREGRINO</t>
-  </si>
-  <si>
-    <t>1050968656</t>
-  </si>
-  <si>
-    <t>CRISTOBAL DAVID CASTILLA RUIZ</t>
-  </si>
-  <si>
-    <t>88689446</t>
-  </si>
-  <si>
-    <t>ALFONSO RAFAEL GONZALEZ</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1047472358</t>
-  </si>
-  <si>
-    <t>OVER LICONA BLANCO</t>
-  </si>
-  <si>
-    <t>73007645</t>
-  </si>
-  <si>
-    <t>CARLOS JESUS GARCIA PEREZ</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>504704</t>
-  </si>
-  <si>
-    <t>FELICE DESIDERIO</t>
-  </si>
-  <si>
-    <t>1043612628</t>
-  </si>
-  <si>
-    <t>OMAR RAMON AGUILLON RUIZ</t>
-  </si>
-  <si>
-    <t>1002388970</t>
-  </si>
-  <si>
-    <t>LAINY PAOLA PUELLO MEZA</t>
-  </si>
-  <si>
-    <t>1002204239</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL ECHENIQUE DE ARCO</t>
-  </si>
-  <si>
-    <t>1001971309</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL POLO SIERRA</t>
-  </si>
-  <si>
-    <t>1042417940</t>
-  </si>
-  <si>
-    <t>DAYANA JUDITH CUESTAS ARROYO</t>
-  </si>
-  <si>
-    <t>1143375294</t>
-  </si>
-  <si>
-    <t>YIRLEIDIS DEL CARMEN CORTES BARRAGAN</t>
-  </si>
-  <si>
-    <t>8509500</t>
-  </si>
-  <si>
-    <t>ESNEIDER RAFAEL PUA RIOS</t>
-  </si>
-  <si>
-    <t>1049539521</t>
-  </si>
-  <si>
-    <t>YURANIS MATOREL DE AVILA</t>
-  </si>
-  <si>
-    <t>1047501696</t>
-  </si>
-  <si>
-    <t>ANDREA CAROLINA JUNCO RAMIREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -320,9 +299,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -340,156 +469,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -535,23 +514,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,10 +558,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E0B8D2-BFD0-B45E-5A2B-A3ABB5B95630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1726743-C963-D276-5B61-5EB27F6E6E89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,8 +965,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0F2E58-D159-4FC0-8B77-C4141A6E4A57}">
-  <dimension ref="B2:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B001BC7-A3E4-4055-A85B-3D769AB207D5}">
+  <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1011,7 +990,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1056,7 +1035,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1088,12 +1067,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4497120</v>
+        <v>3187895</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1104,14 +1083,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F13" s="5">
         <v>16</v>
@@ -1141,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1164,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36602</v>
+        <v>52966</v>
       </c>
       <c r="G16" s="18">
-        <v>1193546</v>
+        <v>1986208</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1187,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>47742</v>
+        <v>79448</v>
       </c>
       <c r="G17" s="18">
-        <v>1193546</v>
+        <v>1986208</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1210,10 +1189,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>23871</v>
+        <v>79448</v>
       </c>
       <c r="G18" s="18">
-        <v>1193546</v>
+        <v>1986208</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1224,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>92000</v>
+        <v>79448</v>
       </c>
       <c r="G19" s="18">
-        <v>3000000</v>
+        <v>1986208</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1247,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" s="18">
-        <v>120000</v>
+        <v>79448</v>
       </c>
       <c r="G20" s="18">
-        <v>3000000</v>
+        <v>1986208</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1270,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>120000</v>
+        <v>79448</v>
       </c>
       <c r="G21" s="18">
-        <v>3000000</v>
+        <v>1986208</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1293,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>120000</v>
+        <v>79448</v>
       </c>
       <c r="G22" s="18">
-        <v>3000000</v>
+        <v>1986208</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1316,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>120000</v>
+        <v>79448</v>
       </c>
       <c r="G23" s="18">
-        <v>3000000</v>
+        <v>1986208</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1339,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>120000</v>
@@ -1362,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>120000</v>
+        <v>47742</v>
       </c>
       <c r="G25" s="18">
-        <v>3000000</v>
+        <v>1193546</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1385,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>120000</v>
+        <v>7290</v>
       </c>
       <c r="G26" s="18">
-        <v>3000000</v>
+        <v>1093546</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1408,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F27" s="18">
-        <v>36602</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1431,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F28" s="18">
-        <v>47742</v>
+        <v>55742</v>
       </c>
       <c r="G28" s="18">
-        <v>1193546</v>
+        <v>1393546</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1454,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>33646</v>
+        <v>9290</v>
       </c>
       <c r="G29" s="18">
-        <v>1193546</v>
+        <v>1393546</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1477,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>43886</v>
+        <v>30284</v>
       </c>
       <c r="G30" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1500,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>47742</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="18">
-        <v>1193546</v>
+        <v>3000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1523,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>47742</v>
+        <v>36602</v>
       </c>
       <c r="G32" s="18">
         <v>1193546</v>
@@ -1546,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>47742</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1569,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>47742</v>
+        <v>55742</v>
       </c>
       <c r="G34" s="18">
-        <v>1193546</v>
+        <v>1393546</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1592,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>47742</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1615,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>47742</v>
+        <v>2423</v>
       </c>
       <c r="G36" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1638,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
-        <v>28970</v>
+        <v>120000</v>
       </c>
       <c r="G37" s="18">
-        <v>924560</v>
+        <v>3000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1661,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>45742</v>
+        <v>15247</v>
       </c>
       <c r="G38" s="18">
-        <v>924560</v>
+        <v>1143546</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1684,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
-        <v>45742</v>
+        <v>4845</v>
       </c>
       <c r="G39" s="18">
-        <v>924560</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1707,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>15247</v>
+        <v>55742</v>
       </c>
       <c r="G40" s="18">
-        <v>924560</v>
+        <v>1393546</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1730,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>79448</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1753,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
-        <v>79448</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1776,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>79448</v>
+        <v>120000</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1799,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>79448</v>
+        <v>45742</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>1143546</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1822,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
-        <v>79448</v>
+        <v>55742</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>1393546</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1845,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
-        <v>79448</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1868,19 +1847,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>79448</v>
+        <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1891,19 +1870,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
-        <v>52966</v>
+        <v>120000</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1914,19 +1893,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
-        <v>36602</v>
+        <v>45742</v>
       </c>
       <c r="G49" s="18">
-        <v>1193546</v>
+        <v>1143546</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1937,19 +1916,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
-        <v>47742</v>
+        <v>55742</v>
       </c>
       <c r="G50" s="18">
-        <v>1193546</v>
+        <v>1393546</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1960,19 +1939,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>23871</v>
+        <v>36341</v>
       </c>
       <c r="G51" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1983,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F52" s="18">
-        <v>3183</v>
+        <v>12114</v>
       </c>
       <c r="G52" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2003,22 +1982,22 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F53" s="18">
-        <v>92000</v>
+        <v>23871</v>
       </c>
       <c r="G53" s="18">
-        <v>3000000</v>
+        <v>1193546</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2026,16 +2005,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F54" s="18">
         <v>120000</v>
@@ -2049,22 +2028,22 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F55" s="18">
-        <v>120000</v>
+        <v>28970</v>
       </c>
       <c r="G55" s="18">
-        <v>3000000</v>
+        <v>1143546</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2072,22 +2051,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F56" s="18">
-        <v>120000</v>
+        <v>23871</v>
       </c>
       <c r="G56" s="18">
-        <v>3000000</v>
+        <v>1193546</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2095,22 +2074,22 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F57" s="18">
-        <v>120000</v>
+        <v>3183</v>
       </c>
       <c r="G57" s="18">
-        <v>3000000</v>
+        <v>1193546</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2118,22 +2097,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F58" s="18">
-        <v>120000</v>
+        <v>15914</v>
       </c>
       <c r="G58" s="18">
-        <v>3000000</v>
+        <v>1193546</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2141,22 +2120,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F59" s="18">
-        <v>120000</v>
+        <v>23871</v>
       </c>
       <c r="G59" s="18">
-        <v>3000000</v>
+        <v>1193546</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2164,22 +2143,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F60" s="18">
-        <v>120000</v>
+        <v>23871</v>
       </c>
       <c r="G60" s="18">
-        <v>3000000</v>
+        <v>1193546</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2190,19 +2169,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F61" s="18">
-        <v>13241</v>
+        <v>55742</v>
       </c>
       <c r="G61" s="18">
-        <v>1693546</v>
+        <v>1393546</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2213,19 +2192,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F62" s="18">
-        <v>36602</v>
+        <v>36341</v>
       </c>
       <c r="G62" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2236,13 +2215,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F63" s="18">
         <v>47742</v>
@@ -2259,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F64" s="18">
-        <v>15914</v>
+        <v>120000</v>
       </c>
       <c r="G64" s="18">
-        <v>1193546</v>
+        <v>3000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2282,16 +2261,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F65" s="18">
-        <v>36602</v>
+        <v>47742</v>
       </c>
       <c r="G65" s="18">
         <v>1193546</v>
@@ -2305,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F66" s="18">
         <v>47742</v>
@@ -2328,16 +2307,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F67" s="18">
-        <v>23871</v>
+        <v>47742</v>
       </c>
       <c r="G67" s="18">
         <v>1193546</v>
@@ -2351,16 +2330,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F68" s="18">
-        <v>36602</v>
+        <v>47742</v>
       </c>
       <c r="G68" s="18">
         <v>1193546</v>
@@ -2374,19 +2353,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F69" s="18">
-        <v>47742</v>
+        <v>55742</v>
       </c>
       <c r="G69" s="18">
-        <v>1193546</v>
+        <v>1393546</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2397,19 +2376,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F70" s="18">
-        <v>23871</v>
+        <v>36341</v>
       </c>
       <c r="G70" s="18">
-        <v>1193546</v>
+        <v>908526</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2420,19 +2399,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F71" s="18">
-        <v>7290</v>
+        <v>36602</v>
       </c>
       <c r="G71" s="18">
-        <v>1093546</v>
+        <v>1193546</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2443,19 +2422,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F72" s="18">
-        <v>4845</v>
+        <v>92000</v>
       </c>
       <c r="G72" s="18">
-        <v>908526</v>
+        <v>3000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2466,19 +2445,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F73" s="18">
-        <v>36341</v>
+        <v>36602</v>
       </c>
       <c r="G73" s="18">
-        <v>908526</v>
+        <v>1193546</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2489,19 +2468,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F74" s="18">
-        <v>36341</v>
+        <v>36602</v>
       </c>
       <c r="G74" s="18">
-        <v>908526</v>
+        <v>1193546</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2512,19 +2491,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F75" s="18">
-        <v>42736</v>
+        <v>36602</v>
       </c>
       <c r="G75" s="18">
-        <v>1393546</v>
+        <v>1193546</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2535,19 +2514,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F76" s="18">
-        <v>55742</v>
+        <v>36602</v>
       </c>
       <c r="G76" s="18">
-        <v>1393546</v>
+        <v>1193546</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2558,16 +2537,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F77" s="18">
-        <v>55742</v>
+        <v>42736</v>
       </c>
       <c r="G77" s="18">
         <v>1393546</v>
@@ -2577,447 +2556,56 @@
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="18">
-        <v>55742</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1393546</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="18">
-        <v>55742</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1393546</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="18">
-        <v>55742</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1393546</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="18">
-        <v>55742</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1393546</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="18">
-        <v>9290</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1393546</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="B78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="24">
+        <v>27861</v>
+      </c>
+      <c r="G78" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="18">
-        <v>55742</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1393546</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="B83" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="18">
-        <v>27861</v>
-      </c>
-      <c r="G84" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G85" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G86" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G87" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G88" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G89" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G90" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="18">
-        <v>30284</v>
-      </c>
-      <c r="G91" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="18">
-        <v>12114</v>
-      </c>
-      <c r="G92" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B93" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G93" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G94" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="24">
-        <v>2423</v>
-      </c>
-      <c r="G95" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="26"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="H100" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C101" s="32"/>
-      <c r="H101" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="B84" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="H84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
